--- a/Remote/ug16/Données/04/dist_fret_ug16_d04.xlsx
+++ b/Remote/ug16/Données/04/dist_fret_ug16_d04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\Office\Gaines rectangulaires\bases\ug16\Données\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Données\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809933D2-74DD-4C11-80C4-3E2672D06234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B210ED12-80FB-421A-A0E6-524ABBB761DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1EDECED-9E95-488B-807D-F9CDE4DD9B81}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>95 - VAL-D OISE</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -523,12 +532,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,6 +599,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +948,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FADD653-2137-4063-9FC1-FD52620103C2}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O95"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -963,46 +1011,46 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="C2" s="8">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="E2" s="8">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G2" s="8">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="I2" s="8">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J2" s="8">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="K2" s="8">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="L2" s="8">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="M2" s="8">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="N2" s="8">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="O2" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1010,46 +1058,46 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C3" s="8">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D3" s="8">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="G3" s="8">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="I3" s="8">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="J3" s="8">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="K3" s="8">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="L3" s="8">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="M3" s="8">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="N3" s="8">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O3" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1057,46 +1105,46 @@
         <v>4</v>
       </c>
       <c r="B4" s="8">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C4" s="8">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="E4" s="8">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="L4" s="8">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="M4" s="8">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="N4" s="8">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="O4" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1104,46 +1152,46 @@
         <v>5</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C5" s="8">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="I5" s="8">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="K5" s="8">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="L5" s="8">
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="M5" s="8">
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="N5" s="8">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="O5" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1151,46 +1199,46 @@
         <v>6</v>
       </c>
       <c r="B6" s="8">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="C6" s="8">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="D6" s="8">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="I6" s="8">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="J6" s="8">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="K6" s="8">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="L6" s="8">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="M6" s="8">
-        <v>0</v>
+        <v>1288</v>
       </c>
       <c r="N6" s="8">
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="O6" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1198,46 +1246,46 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="C7" s="8">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="H7" s="8">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="I7" s="8">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="J7" s="8">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>1102</v>
       </c>
       <c r="L7" s="8">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="M7" s="8">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="N7" s="8">
-        <v>0</v>
+        <v>1328</v>
       </c>
       <c r="O7" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1245,46 +1293,46 @@
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C8" s="8">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="J8" s="8">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="L8" s="8">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="M8" s="8">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="N8" s="8">
-        <v>0</v>
+        <v>895</v>
       </c>
       <c r="O8" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1292,46 +1340,46 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="C9" s="8">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D9" s="8">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J9" s="8">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="L9" s="8">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="M9" s="8">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N9" s="8">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="O9" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1339,46 +1387,46 @@
         <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="I10" s="8">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="J10" s="8">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="L10" s="8">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="M10" s="8">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="N10" s="8">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="O10" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1386,46 +1434,46 @@
         <v>11</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D11" s="8">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="K11" s="8">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="L11" s="8">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="M11" s="8">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="N11" s="8">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O11" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1433,46 +1481,46 @@
         <v>12</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="C12" s="8">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="I12" s="8">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="J12" s="8">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="K12" s="8">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="M12" s="8">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="N12" s="8">
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="O12" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1480,46 +1528,46 @@
         <v>13</v>
       </c>
       <c r="B13" s="8">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C13" s="8">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D13" s="8">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="E13" s="8">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="H13" s="8">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="I13" s="8">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J13" s="8">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="K13" s="8">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="L13" s="8">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="M13" s="8">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="N13" s="8">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="O13" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1527,46 +1575,46 @@
         <v>14</v>
       </c>
       <c r="B14" s="8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C14" s="8">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="K14" s="8">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="L14" s="8">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="M14" s="8">
-        <v>0</v>
+        <v>1277</v>
       </c>
       <c r="N14" s="8">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="O14" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1574,46 +1622,46 @@
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C15" s="8">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E15" s="8">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F15" s="8">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G15" s="8">
+        <v>172</v>
+      </c>
+      <c r="H15" s="8">
         <v>195</v>
       </c>
-      <c r="H15" s="8">
-        <v>210</v>
-      </c>
       <c r="I15" s="8">
+        <v>198</v>
+      </c>
+      <c r="J15" s="8">
+        <v>209</v>
+      </c>
+      <c r="K15" s="8">
         <v>220</v>
       </c>
-      <c r="J15" s="8">
-        <v>235</v>
-      </c>
-      <c r="K15" s="8">
-        <v>250</v>
-      </c>
       <c r="L15" s="8">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="M15" s="8">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="N15" s="8">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="O15" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1621,46 +1669,46 @@
         <v>16</v>
       </c>
       <c r="B16" s="8">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="C16" s="8">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="J16" s="8">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="K16" s="8">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="L16" s="8">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="M16" s="8">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="N16" s="8">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="O16" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1668,46 +1716,46 @@
         <v>17</v>
       </c>
       <c r="B17" s="8">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C17" s="8">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E17" s="8">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="I17" s="8">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="J17" s="8">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="L17" s="8">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="M17" s="8">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N17" s="8">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="O17" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1715,46 +1763,46 @@
         <v>18</v>
       </c>
       <c r="B18" s="8">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C18" s="8">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D18" s="8">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G18" s="8">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="H18" s="8">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="I18" s="8">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="J18" s="8">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="L18" s="8">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="M18" s="8">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N18" s="8">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="O18" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1762,46 +1810,46 @@
         <v>19</v>
       </c>
       <c r="B19" s="8">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C19" s="8">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E19" s="8">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="I19" s="8">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="J19" s="8">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="K19" s="8">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="L19" s="8">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M19" s="8">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="N19" s="8">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="O19" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1809,46 +1857,46 @@
         <v>20</v>
       </c>
       <c r="B20" s="8">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C20" s="8">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D20" s="8">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="F20" s="8">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="G20" s="8">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="I20" s="8">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="J20" s="8">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="K20" s="8">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M20" s="8">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="N20" s="8">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="O20" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1856,46 +1904,46 @@
         <v>21</v>
       </c>
       <c r="B21" s="8">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C21" s="8">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D21" s="8">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="F21" s="8">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="I21" s="8">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="J21" s="8">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="K21" s="8">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="L21" s="8">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="M21" s="8">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="N21" s="8">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="O21" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1903,46 +1951,46 @@
         <v>22</v>
       </c>
       <c r="B22" s="8">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C22" s="8">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D22" s="8">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E22" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F22" s="8">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G22" s="8">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="H22" s="8">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="I22" s="8">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="J22" s="8">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K22" s="8">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="L22" s="8">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="M22" s="8">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="N22" s="8">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="O22" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1950,46 +1998,46 @@
         <v>23</v>
       </c>
       <c r="B23" s="8">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C23" s="8">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D23" s="8">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E23" s="8">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="F23" s="8">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="G23" s="8">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="I23" s="8">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="J23" s="8">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="K23" s="8">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="L23" s="8">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="M23" s="8">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="N23" s="8">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="O23" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1997,46 +2045,46 @@
         <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C24" s="8">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="D24" s="8">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E24" s="8">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="F24" s="8">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="G24" s="8">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="H24" s="8">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="I24" s="8">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J24" s="8">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="K24" s="8">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="L24" s="8">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="M24" s="8">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="N24" s="8">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="O24" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2044,46 +2092,46 @@
         <v>25</v>
       </c>
       <c r="B25" s="8">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C25" s="8">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="D25" s="8">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="F25" s="8">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="G25" s="8">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="J25" s="8">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="K25" s="8">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="L25" s="8">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="M25" s="8">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="N25" s="8">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="O25" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2091,46 +2139,46 @@
         <v>26</v>
       </c>
       <c r="B26" s="8">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C26" s="8">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D26" s="8">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="E26" s="8">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="G26" s="8">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H26" s="8">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="I26" s="8">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="J26" s="8">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="K26" s="8">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="L26" s="8">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="M26" s="8">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="N26" s="8">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="O26" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2138,46 +2186,46 @@
         <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C27" s="8">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D27" s="8">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="E27" s="8">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="F27" s="8">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="G27" s="8">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="H27" s="8">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="I27" s="8">
+        <v>226</v>
+      </c>
+      <c r="J27" s="8">
+        <v>238</v>
+      </c>
+      <c r="K27" s="8">
         <v>250</v>
       </c>
-      <c r="J27" s="8">
-        <v>260</v>
-      </c>
-      <c r="K27" s="8">
-        <v>280</v>
-      </c>
       <c r="L27" s="8">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="M27" s="8">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="N27" s="8">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="O27" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2185,46 +2233,46 @@
         <v>28</v>
       </c>
       <c r="B28" s="8">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C28" s="8">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D28" s="8">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="E28" s="8">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F28" s="8">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G28" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H28" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I28" s="8">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="J28" s="8">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="K28" s="8">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="L28" s="8">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M28" s="8">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="N28" s="8">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="O28" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2232,46 +2280,46 @@
         <v>29</v>
       </c>
       <c r="B29" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C29" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D29" s="8">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E29" s="8">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F29" s="8">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="G29" s="8">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H29" s="8">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="I29" s="8">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="J29" s="8">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="K29" s="8">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="L29" s="8">
-        <v>454.65</v>
+        <v>519</v>
       </c>
       <c r="M29" s="8">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="N29" s="8">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="O29" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2279,46 +2327,46 @@
         <v>30</v>
       </c>
       <c r="B30" s="8">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="C30" s="8">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="D30" s="8">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E30" s="8">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="F30" s="8">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="G30" s="8">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="H30" s="8">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="I30" s="8">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="J30" s="8">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="K30" s="8">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="M30" s="8">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="N30" s="8">
-        <v>0</v>
+        <v>1237</v>
       </c>
       <c r="O30" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2326,46 +2374,46 @@
         <v>31</v>
       </c>
       <c r="B31" s="8">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="C31" s="8">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D31" s="8">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="E31" s="8">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="F31" s="8">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="G31" s="8">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="H31" s="8">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="I31" s="8">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="J31" s="8">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="K31" s="8">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="L31" s="8">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="M31" s="8">
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="N31" s="8">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="O31" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2373,46 +2421,46 @@
         <v>32</v>
       </c>
       <c r="B32" s="8">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="C32" s="8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D32" s="8">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="E32" s="8">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G32" s="8">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="H32" s="8">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="I32" s="8">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J32" s="8">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="K32" s="8">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="L32" s="8">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="M32" s="8">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="N32" s="8">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="O32" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2420,46 +2468,46 @@
         <v>33</v>
       </c>
       <c r="B33" s="8">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C33" s="8">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="D33" s="8">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="E33" s="8">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="F33" s="8">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="G33" s="8">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="H33" s="8">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="I33" s="8">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="J33" s="8">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="K33" s="8">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="L33" s="8">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="M33" s="8">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="N33" s="8">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="O33" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2467,46 +2515,46 @@
         <v>34</v>
       </c>
       <c r="B34" s="8">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="C34" s="8">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="D34" s="8">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="E34" s="8">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="F34" s="8">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="G34" s="8">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="H34" s="8">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="I34" s="8">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="J34" s="8">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="K34" s="8">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="L34" s="8">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="M34" s="8">
-        <v>0</v>
+        <v>1221</v>
       </c>
       <c r="N34" s="8">
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="O34" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2514,46 +2562,46 @@
         <v>35</v>
       </c>
       <c r="B35" s="8">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C35" s="8">
-        <v>154.76190476190476</v>
+        <v>155</v>
       </c>
       <c r="D35" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E35" s="8">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F35" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G35" s="8">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H35" s="8">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="I35" s="8">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="J35" s="8">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="K35" s="8">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L35" s="8">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M35" s="8">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="N35" s="8">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="O35" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2561,46 +2609,46 @@
         <v>36</v>
       </c>
       <c r="B36" s="8">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C36" s="8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D36" s="8">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="E36" s="8">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="F36" s="8">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G36" s="8">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="H36" s="8">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="I36" s="8">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J36" s="8">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="K36" s="8">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="L36" s="8">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="M36" s="8">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="N36" s="8">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="O36" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2608,46 +2656,46 @@
         <v>37</v>
       </c>
       <c r="B37" s="8">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C37" s="8">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D37" s="8">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E37" s="8">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F37" s="8">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="G37" s="8">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="H37" s="8">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="I37" s="8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J37" s="8">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="K37" s="8">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="L37" s="8">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="M37" s="8">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="N37" s="8">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="O37" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2655,46 +2703,46 @@
         <v>38</v>
       </c>
       <c r="B38" s="8">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="D38" s="8">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="E38" s="8">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="F38" s="8">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="G38" s="8">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="H38" s="8">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="I38" s="8">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="J38" s="8">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="K38" s="8">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="L38" s="8">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="M38" s="8">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="N38" s="8">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="O38" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2702,46 +2750,46 @@
         <v>39</v>
       </c>
       <c r="B39" s="8">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="D39" s="8">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="F39" s="8">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="G39" s="8">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="H39" s="8">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="I39" s="8">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="J39" s="8">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="L39" s="8">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="M39" s="8">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="N39" s="8">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="O39" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2749,46 +2797,46 @@
         <v>40</v>
       </c>
       <c r="B40" s="8">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C40" s="8">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D40" s="8">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="E40" s="8">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="F40" s="8">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="G40" s="8">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="H40" s="8">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="I40" s="8">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="J40" s="8">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="K40" s="8">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="L40" s="8">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="M40" s="8">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="N40" s="8">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="O40" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2796,46 +2844,46 @@
         <v>41</v>
       </c>
       <c r="B41" s="8">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C41" s="8">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D41" s="8">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="E41" s="8">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="F41" s="8">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="G41" s="8">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="H41" s="8">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="I41" s="8">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="J41" s="8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="L41" s="8">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="M41" s="8">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="N41" s="8">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="O41" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2843,46 +2891,46 @@
         <v>42</v>
       </c>
       <c r="B42" s="8">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="C42" s="8">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D42" s="8">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="E42" s="8">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="F42" s="8">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="G42" s="8">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H42" s="8">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="I42" s="8">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J42" s="8">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="K42" s="8">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="L42" s="8">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="M42" s="8">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="N42" s="8">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="O42" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2890,46 +2938,46 @@
         <v>43</v>
       </c>
       <c r="B43" s="8">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C43" s="8">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D43" s="8">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="E43" s="8">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="F43" s="8">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="G43" s="8">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="H43" s="8">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="I43" s="8">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J43" s="8">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="K43" s="8">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="L43" s="8">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="M43" s="8">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="N43" s="8">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="O43" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2937,46 +2985,46 @@
         <v>44</v>
       </c>
       <c r="B44" s="8">
-        <v>144.57831325301206</v>
+        <v>167</v>
       </c>
       <c r="C44" s="8">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D44" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E44" s="8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F44" s="8">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G44" s="8">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="H44" s="8">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="I44" s="8">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="J44" s="8">
-        <v>329.67032967032964</v>
+        <v>381</v>
       </c>
       <c r="K44" s="8">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="L44" s="8">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="M44" s="8">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="N44" s="8">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="O44" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2984,46 +3032,46 @@
         <v>45</v>
       </c>
       <c r="B45" s="8">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C45" s="8">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D45" s="8">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E45" s="8">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="F45" s="8">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G45" s="8">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="H45" s="8">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="I45" s="8">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="J45" s="8">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="K45" s="8">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="L45" s="8">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="M45" s="8">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="N45" s="8">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="O45" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3031,46 +3079,46 @@
         <v>46</v>
       </c>
       <c r="B46" s="8">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="C46" s="8">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D46" s="8">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="E46" s="8">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="F46" s="8">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="G46" s="8">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="H46" s="8">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I46" s="8">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="J46" s="8">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="K46" s="8">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="L46" s="8">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="M46" s="8">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="N46" s="8">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="O46" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3078,46 +3126,46 @@
         <v>47</v>
       </c>
       <c r="B47" s="8">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C47" s="8">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="D47" s="8">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="E47" s="8">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F47" s="8">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="G47" s="8">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="H47" s="8">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="I47" s="8">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="J47" s="8">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="K47" s="8">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="L47" s="8">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="M47" s="8">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="N47" s="8">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="O47" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3125,46 +3173,46 @@
         <v>48</v>
       </c>
       <c r="B48" s="8">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C48" s="8">
-        <v>0</v>
+        <v>2339</v>
       </c>
       <c r="D48" s="8">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="E48" s="8">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="F48" s="8">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="G48" s="8">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="H48" s="8">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="I48" s="8">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="J48" s="8">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="K48" s="8">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="L48" s="8">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="M48" s="8">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="N48" s="8">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="O48" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3172,46 +3220,46 @@
         <v>49</v>
       </c>
       <c r="B49" s="8">
-        <v>144.57831325301206</v>
+        <v>159</v>
       </c>
       <c r="C49" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D49" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E49" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F49" s="8">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G49" s="8">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H49" s="8">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I49" s="8">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="J49" s="8">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="K49" s="8">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="L49" s="8">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M49" s="8">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="N49" s="8">
-        <v>394.73684210526318</v>
+        <v>421</v>
       </c>
       <c r="O49" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3219,46 +3267,46 @@
         <v>50</v>
       </c>
       <c r="B50" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C50" s="8">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D50" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E50" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F50" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G50" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H50" s="8">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I50" s="8">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="J50" s="8">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="K50" s="8">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="L50" s="8">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M50" s="8">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="N50" s="8">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="O50" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3266,46 +3314,46 @@
         <v>51</v>
       </c>
       <c r="B51" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C51" s="8">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D51" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E51" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F51" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G51" s="8">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="H51" s="8">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="I51" s="8">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="J51" s="8">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="K51" s="8">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="L51" s="8">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="M51" s="8">
-        <v>540</v>
+        <v>459</v>
       </c>
       <c r="N51" s="8">
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="O51" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -3313,46 +3361,46 @@
         <v>52</v>
       </c>
       <c r="B52" s="8">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="C52" s="8">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D52" s="8">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E52" s="8">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="F52" s="8">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="G52" s="8">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="H52" s="8">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="I52" s="8">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="J52" s="8">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="K52" s="8">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="L52" s="8">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="M52" s="8">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="N52" s="8">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="O52" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -3360,46 +3408,46 @@
         <v>53</v>
       </c>
       <c r="B53" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C53" s="8">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E53" s="8">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F53" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G53" s="8">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H53" s="8">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="I53" s="8">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="J53" s="8">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K53" s="8">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="L53" s="8">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="M53" s="8">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="N53" s="8">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O53" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -3407,46 +3455,46 @@
         <v>54</v>
       </c>
       <c r="B54" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C54" s="8">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="D54" s="8">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="E54" s="8">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="F54" s="8">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="G54" s="8">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="H54" s="8">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="I54" s="8">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="J54" s="8">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="K54" s="8">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="L54" s="8">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="M54" s="8">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="N54" s="8">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="O54" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -3454,46 +3502,46 @@
         <v>55</v>
       </c>
       <c r="B55" s="8">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="C55" s="8">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="D55" s="8">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="E55" s="8">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F55" s="8">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="G55" s="8">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="H55" s="8">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="I55" s="8">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="J55" s="8">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="K55" s="8">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="L55" s="8">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="M55" s="8">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="N55" s="8">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="O55" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -3501,46 +3549,46 @@
         <v>56</v>
       </c>
       <c r="B56" s="8">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C56" s="8">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D56" s="8">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E56" s="8">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F56" s="8">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G56" s="8">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H56" s="8">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="I56" s="8">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J56" s="8">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="K56" s="8">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="L56" s="8">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="M56" s="8">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="N56" s="8">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="O56" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -3548,46 +3596,46 @@
         <v>57</v>
       </c>
       <c r="B57" s="8">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="C57" s="8">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D57" s="8">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="E57" s="8">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="F57" s="8">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="G57" s="8">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="H57" s="8">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="I57" s="8">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="J57" s="8">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="K57" s="8">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="L57" s="8">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="M57" s="8">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="N57" s="8">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="O57" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -3595,46 +3643,46 @@
         <v>58</v>
       </c>
       <c r="B58" s="8">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C58" s="8">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D58" s="8">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E58" s="8">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="F58" s="8">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="G58" s="8">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="H58" s="8">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="I58" s="8">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="J58" s="8">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="K58" s="8">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="L58" s="8">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="M58" s="8">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="N58" s="8">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="O58" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3642,46 +3690,46 @@
         <v>59</v>
       </c>
       <c r="B59" s="8">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C59" s="8">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E59" s="8">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F59" s="8">
-        <v>260.3</v>
+        <v>241</v>
       </c>
       <c r="G59" s="8">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="H59" s="8">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I59" s="8">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J59" s="8">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="K59" s="8">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="L59" s="8">
-        <v>390.15</v>
+        <v>375</v>
       </c>
       <c r="M59" s="8">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="N59" s="8">
-        <v>490</v>
+        <v>395</v>
       </c>
       <c r="O59" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3689,46 +3737,46 @@
         <v>60</v>
       </c>
       <c r="B60" s="8">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C60" s="8">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D60" s="8">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E60" s="8">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F60" s="8">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G60" s="8">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="H60" s="8">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="I60" s="8">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J60" s="8">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K60" s="8">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L60" s="8">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M60" s="8">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="N60" s="8">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="O60" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3736,46 +3784,46 @@
         <v>61</v>
       </c>
       <c r="B61" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C61" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D61" s="8">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E61" s="8">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F61" s="8">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G61" s="8">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H61" s="8">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="I61" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J61" s="8">
+        <v>238</v>
+      </c>
+      <c r="K61" s="8">
         <v>250</v>
       </c>
-      <c r="K61" s="8">
-        <v>260</v>
-      </c>
       <c r="L61" s="8">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M61" s="8">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="N61" s="8">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="O61" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3783,46 +3831,46 @@
         <v>62</v>
       </c>
       <c r="B62" s="8">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C62" s="8">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D62" s="8">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E62" s="8">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F62" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="G62" s="8">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="H62" s="8">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I62" s="8">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J62" s="8">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="K62" s="8">
-        <v>380.43478260869557</v>
+        <v>359</v>
       </c>
       <c r="L62" s="8">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="M62" s="8">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="N62" s="8">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="O62" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3830,46 +3878,46 @@
         <v>63</v>
       </c>
       <c r="B63" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C63" s="8">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D63" s="8">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="E63" s="8">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="F63" s="8">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="G63" s="8">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="H63" s="8">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="I63" s="8">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="J63" s="8">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="K63" s="8">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="L63" s="8">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="M63" s="8">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="N63" s="8">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="O63" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3877,46 +3925,46 @@
         <v>64</v>
       </c>
       <c r="B64" s="8">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="C64" s="8">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="D64" s="8">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="E64" s="8">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="F64" s="8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G64" s="8">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="H64" s="8">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="I64" s="8">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="J64" s="8">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="K64" s="8">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="L64" s="8">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="M64" s="8">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="N64" s="8">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="O64" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3924,46 +3972,46 @@
         <v>65</v>
       </c>
       <c r="B65" s="8">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C65" s="8">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D65" s="8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="E65" s="8">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="F65" s="8">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="G65" s="8">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H65" s="8">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="I65" s="8">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J65" s="8">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="K65" s="8">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="L65" s="8">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="M65" s="8">
-        <v>0</v>
+        <v>1139</v>
       </c>
       <c r="N65" s="8">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="O65" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3971,46 +4019,46 @@
         <v>66</v>
       </c>
       <c r="B66" s="8">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C66" s="8">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D66" s="8">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="E66" s="8">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="F66" s="8">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="G66" s="8">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H66" s="8">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="I66" s="8">
-        <v>0</v>
+        <v>925</v>
       </c>
       <c r="J66" s="8">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="K66" s="8">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="L66" s="8">
-        <v>0</v>
+        <v>1138</v>
       </c>
       <c r="M66" s="8">
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="N66" s="8">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="O66" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -4018,46 +4066,46 @@
         <v>67</v>
       </c>
       <c r="B67" s="8">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C67" s="8">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D67" s="8">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E67" s="8">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="F67" s="8">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="G67" s="8">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="H67" s="8">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="I67" s="8">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J67" s="8">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="K67" s="8">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="L67" s="8">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="M67" s="8">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="N67" s="8">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="O67" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -4065,46 +4113,46 @@
         <v>68</v>
       </c>
       <c r="B68" s="8">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C68" s="8">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D68" s="8">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="E68" s="8">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="F68" s="8">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="G68" s="8">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="H68" s="8">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="I68" s="8">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J68" s="8">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="K68" s="8">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="L68" s="8">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="M68" s="8">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="N68" s="8">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="O68" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -4112,46 +4160,46 @@
         <v>69</v>
       </c>
       <c r="B69" s="8">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C69" s="8">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="D69" s="8">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="E69" s="8">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="F69" s="8">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="G69" s="8">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="H69" s="8">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="I69" s="8">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="J69" s="8">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="K69" s="8">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="L69" s="8">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="M69" s="8">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="N69" s="8">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="O69" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -4159,46 +4207,46 @@
         <v>70</v>
       </c>
       <c r="B70" s="8">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C70" s="8">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D70" s="8">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="E70" s="8">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F70" s="8">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="G70" s="8">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="H70" s="8">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I70" s="8">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="J70" s="8">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="K70" s="8">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="L70" s="8">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="M70" s="8">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="N70" s="8">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="O70" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -4206,46 +4254,46 @@
         <v>71</v>
       </c>
       <c r="B71" s="8">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C71" s="8">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D71" s="8">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="E71" s="8">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="F71" s="8">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="G71" s="8">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="H71" s="8">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I71" s="8">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="J71" s="8">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="K71" s="8">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="L71" s="8">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="M71" s="8">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="N71" s="8">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="O71" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -4253,46 +4301,46 @@
         <v>72</v>
       </c>
       <c r="B72" s="8">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C72" s="8">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D72" s="8">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E72" s="8">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F72" s="8">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G72" s="8">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H72" s="8">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I72" s="8">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="J72" s="8">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="K72" s="8">
-        <v>309.78260869565213</v>
+        <v>302</v>
       </c>
       <c r="L72" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M72" s="8">
-        <v>329.78723404255322</v>
+        <v>329</v>
       </c>
       <c r="N72" s="8">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="O72" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -4300,46 +4348,46 @@
         <v>73</v>
       </c>
       <c r="B73" s="8">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C73" s="8">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D73" s="8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="E73" s="8">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="F73" s="8">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="G73" s="8">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H73" s="8">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="I73" s="8">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J73" s="8">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="K73" s="8">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="L73" s="8">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="M73" s="8">
-        <v>0</v>
+        <v>1139</v>
       </c>
       <c r="N73" s="8">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="O73" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -4347,46 +4395,46 @@
         <v>74</v>
       </c>
       <c r="B74" s="8">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C74" s="8">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D74" s="8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="E74" s="8">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="F74" s="8">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="G74" s="8">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="H74" s="8">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="I74" s="8">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J74" s="8">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="K74" s="8">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="L74" s="8">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="M74" s="8">
-        <v>0</v>
+        <v>1139</v>
       </c>
       <c r="N74" s="8">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="O74" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -4394,46 +4442,46 @@
         <v>75</v>
       </c>
       <c r="B75" s="8">
-        <v>170</v>
+        <v>9999</v>
       </c>
       <c r="C75" s="8">
-        <v>200</v>
+        <v>9999</v>
       </c>
       <c r="D75" s="8">
-        <v>240</v>
+        <v>9999</v>
       </c>
       <c r="E75" s="8">
-        <v>260</v>
+        <v>9999</v>
       </c>
       <c r="F75" s="8">
-        <v>280</v>
+        <v>9999</v>
       </c>
       <c r="G75" s="8">
-        <v>300</v>
+        <v>9999</v>
       </c>
       <c r="H75" s="8">
-        <v>330</v>
+        <v>9999</v>
       </c>
       <c r="I75" s="8">
-        <v>350</v>
+        <v>9999</v>
       </c>
       <c r="J75" s="8">
-        <v>370</v>
+        <v>9999</v>
       </c>
       <c r="K75" s="8">
-        <v>390</v>
+        <v>9999</v>
       </c>
       <c r="L75" s="8">
-        <v>410</v>
+        <v>9999</v>
       </c>
       <c r="M75" s="8">
-        <v>420</v>
+        <v>9999</v>
       </c>
       <c r="N75" s="8">
-        <v>430</v>
+        <v>9999</v>
       </c>
       <c r="O75" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -4441,46 +4489,46 @@
         <v>76</v>
       </c>
       <c r="B76" s="8">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C76" s="8">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D76" s="8">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E76" s="8">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="F76" s="8">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="G76" s="8">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="H76" s="8">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="I76" s="8">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="J76" s="8">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="K76" s="8">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L76" s="8">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="M76" s="8">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="N76" s="8">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="O76" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -4488,46 +4536,46 @@
         <v>77</v>
       </c>
       <c r="B77" s="8">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C77" s="8">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D77" s="8">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="E77" s="8">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="F77" s="8">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="G77" s="8">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="H77" s="8">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="I77" s="8">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="J77" s="8">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="K77" s="8">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="L77" s="8">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="M77" s="8">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="N77" s="8">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="O77" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -4535,46 +4583,46 @@
         <v>78</v>
       </c>
       <c r="B78" s="8">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C78" s="8">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D78" s="8">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E78" s="8">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F78" s="8">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G78" s="8">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="H78" s="8">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I78" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J78" s="8">
         <v>320</v>
       </c>
       <c r="K78" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L78" s="8">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M78" s="8">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="N78" s="8">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="O78" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -4582,46 +4630,46 @@
         <v>79</v>
       </c>
       <c r="B79" s="8">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C79" s="8">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D79" s="8">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E79" s="8">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F79" s="8">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G79" s="8">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H79" s="8">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="I79" s="8">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J79" s="8">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K79" s="8">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L79" s="8">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="M79" s="8">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="N79" s="8">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="O79" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4629,46 +4677,46 @@
         <v>80</v>
       </c>
       <c r="B80" s="8">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C80" s="8">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D80" s="8">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="E80" s="8">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="F80" s="8">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G80" s="8">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="H80" s="8">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="I80" s="8">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="J80" s="8">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K80" s="8">
+        <v>335</v>
+      </c>
+      <c r="L80" s="8">
         <v>350</v>
       </c>
-      <c r="L80" s="8">
-        <v>360</v>
-      </c>
       <c r="M80" s="8">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="N80" s="8">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="O80" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -4676,46 +4724,46 @@
         <v>81</v>
       </c>
       <c r="B81" s="8">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="C81" s="8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D81" s="8">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="E81" s="8">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="F81" s="8">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G81" s="8">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="H81" s="8">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="I81" s="8">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J81" s="8">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="K81" s="8">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="L81" s="8">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="M81" s="8">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="N81" s="8">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="O81" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -4723,46 +4771,46 @@
         <v>82</v>
       </c>
       <c r="B82" s="8">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="C82" s="8">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="D82" s="8">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="E82" s="8">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="F82" s="8">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="G82" s="8">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="H82" s="8">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="I82" s="8">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="J82" s="8">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="K82" s="8">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="L82" s="8">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="M82" s="8">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="N82" s="8">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="O82" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -4770,46 +4818,46 @@
         <v>83</v>
       </c>
       <c r="B83" s="8">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="C83" s="8">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="D83" s="8">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="E83" s="8">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="F83" s="8">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="G83" s="8">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H83" s="8">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="I83" s="8">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="J83" s="8">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="K83" s="8">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="L83" s="8">
-        <v>0</v>
+        <v>1198</v>
       </c>
       <c r="M83" s="8">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="N83" s="8">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="O83" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -4817,46 +4865,46 @@
         <v>84</v>
       </c>
       <c r="B84" s="8">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="C84" s="8">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="D84" s="8">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="E84" s="8">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="F84" s="8">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G84" s="8">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="H84" s="8">
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="I84" s="8">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="J84" s="8">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="K84" s="8">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="L84" s="8">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="M84" s="8">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="N84" s="8">
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="O84" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -4864,46 +4912,46 @@
         <v>85</v>
       </c>
       <c r="B85" s="8">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C85" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D85" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E85" s="8">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F85" s="8">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G85" s="8">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="H85" s="8">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I85" s="8">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="J85" s="8">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="K85" s="8">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="L85" s="8">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="M85" s="8">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="N85" s="8">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="O85" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -4911,46 +4959,46 @@
         <v>86</v>
       </c>
       <c r="B86" s="8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C86" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D86" s="8">
-        <v>235.29411764705884</v>
+        <v>232</v>
       </c>
       <c r="E86" s="8">
         <v>270</v>
       </c>
       <c r="F86" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G86" s="8">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="H86" s="8">
-        <v>359.55056179775278</v>
+        <v>357</v>
       </c>
       <c r="I86" s="8">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J86" s="8">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K86" s="8">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L86" s="8">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="M86" s="8">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="N86" s="8">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="O86" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -4958,46 +5006,46 @@
         <v>87</v>
       </c>
       <c r="B87" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C87" s="8">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="D87" s="8">
-        <v>235.29411764705884</v>
+        <v>283</v>
       </c>
       <c r="E87" s="8">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="F87" s="8">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="G87" s="8">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="H87" s="8">
-        <v>370</v>
+        <v>459</v>
       </c>
       <c r="I87" s="8">
-        <v>390</v>
+        <v>506</v>
       </c>
       <c r="J87" s="8">
-        <v>430</v>
+        <v>536</v>
       </c>
       <c r="K87" s="8">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="L87" s="8">
-        <v>460</v>
+        <v>617</v>
       </c>
       <c r="M87" s="8">
-        <v>480</v>
+        <v>667</v>
       </c>
       <c r="N87" s="8">
-        <v>530</v>
+        <v>674</v>
       </c>
       <c r="O87" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -5005,46 +5053,46 @@
         <v>88</v>
       </c>
       <c r="B88" s="8">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="C88" s="8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="E88" s="8">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F88" s="8">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G88" s="8">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="H88" s="8">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="I88" s="8">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J88" s="8">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="K88" s="8">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="L88" s="8">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="M88" s="8">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="N88" s="8">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O88" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -5052,46 +5100,46 @@
         <v>89</v>
       </c>
       <c r="B89" s="8">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C89" s="8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D89" s="8">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="E89" s="8">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="F89" s="8">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G89" s="8">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="H89" s="8">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="I89" s="8">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J89" s="8">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="K89" s="8">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="L89" s="8">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="M89" s="8">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="N89" s="8">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="O89" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -5099,46 +5147,46 @@
         <v>90</v>
       </c>
       <c r="B90" s="8">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C90" s="8">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="D90" s="8">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="E90" s="8">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="F90" s="8">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G90" s="8">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H90" s="8">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="I90" s="8">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="J90" s="8">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="K90" s="8">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="L90" s="8">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="M90" s="8">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="N90" s="8">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="O90" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -5146,46 +5194,46 @@
         <v>91</v>
       </c>
       <c r="B91" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C91" s="8">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D91" s="8">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E91" s="8">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="F91" s="8">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G91" s="8">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="H91" s="8">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I91" s="8">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J91" s="8">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K91" s="8">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L91" s="8">
+        <v>367</v>
+      </c>
+      <c r="M91" s="8">
         <v>370</v>
       </c>
-      <c r="M91" s="8">
-        <v>380</v>
-      </c>
       <c r="N91" s="8">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="O91" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -5193,46 +5241,46 @@
         <v>92</v>
       </c>
       <c r="B92" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C92" s="8">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D92" s="8">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E92" s="8">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="F92" s="8">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G92" s="8">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="H92" s="8">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I92" s="8">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J92" s="8">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K92" s="8">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L92" s="8">
+        <v>367</v>
+      </c>
+      <c r="M92" s="8">
         <v>370</v>
       </c>
-      <c r="M92" s="8">
-        <v>380</v>
-      </c>
       <c r="N92" s="8">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="O92" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -5240,46 +5288,46 @@
         <v>93</v>
       </c>
       <c r="B93" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C93" s="8">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D93" s="8">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E93" s="8">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="F93" s="8">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="G93" s="8">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="H93" s="8">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="I93" s="8">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J93" s="8">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K93" s="8">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L93" s="8">
+        <v>367</v>
+      </c>
+      <c r="M93" s="8">
         <v>370</v>
       </c>
-      <c r="M93" s="8">
-        <v>380</v>
-      </c>
       <c r="N93" s="8">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="O93" s="12">
-        <v>43452</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -5287,93 +5335,234 @@
         <v>94</v>
       </c>
       <c r="B94" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C94" s="8">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D94" s="8">
+        <v>187</v>
+      </c>
+      <c r="E94" s="8">
+        <v>212</v>
+      </c>
+      <c r="F94" s="8">
+        <v>235</v>
+      </c>
+      <c r="G94" s="8">
+        <v>259</v>
+      </c>
+      <c r="H94" s="8">
+        <v>288</v>
+      </c>
+      <c r="I94" s="8">
+        <v>317</v>
+      </c>
+      <c r="J94" s="8">
+        <v>334</v>
+      </c>
+      <c r="K94" s="8">
+        <v>351</v>
+      </c>
+      <c r="L94" s="8">
+        <v>367</v>
+      </c>
+      <c r="M94" s="8">
+        <v>370</v>
+      </c>
+      <c r="N94" s="8">
+        <v>386</v>
+      </c>
+      <c r="O94" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="14">
+        <v>146</v>
+      </c>
+      <c r="C95" s="14">
+        <v>162</v>
+      </c>
+      <c r="D95" s="14">
+        <v>187</v>
+      </c>
+      <c r="E95" s="14">
+        <v>212</v>
+      </c>
+      <c r="F95" s="14">
+        <v>235</v>
+      </c>
+      <c r="G95" s="14">
+        <v>259</v>
+      </c>
+      <c r="H95" s="14">
+        <v>288</v>
+      </c>
+      <c r="I95" s="14">
+        <v>317</v>
+      </c>
+      <c r="J95" s="14">
+        <v>334</v>
+      </c>
+      <c r="K95" s="14">
+        <v>351</v>
+      </c>
+      <c r="L95" s="14">
+        <v>367</v>
+      </c>
+      <c r="M95" s="14">
+        <v>370</v>
+      </c>
+      <c r="N95" s="14">
+        <v>386</v>
+      </c>
+      <c r="O95" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="16">
+        <v>200</v>
+      </c>
+      <c r="C96" s="16">
+        <v>201</v>
+      </c>
+      <c r="D96" s="16">
+        <v>202</v>
+      </c>
+      <c r="E96" s="16">
+        <v>203</v>
+      </c>
+      <c r="F96" s="16">
+        <v>204</v>
+      </c>
+      <c r="G96" s="16">
+        <v>205</v>
+      </c>
+      <c r="H96" s="16">
+        <v>206</v>
+      </c>
+      <c r="I96" s="16">
+        <v>207</v>
+      </c>
+      <c r="J96" s="16">
+        <v>208</v>
+      </c>
+      <c r="K96" s="16">
+        <v>209</v>
+      </c>
+      <c r="L96" s="16">
+        <v>210</v>
+      </c>
+      <c r="M96" s="16">
+        <v>211</v>
+      </c>
+      <c r="N96" s="16">
+        <v>212</v>
+      </c>
+      <c r="O96" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="16">
+        <v>167</v>
+      </c>
+      <c r="C97" s="16">
+        <v>219</v>
+      </c>
+      <c r="D97" s="16">
+        <v>270</v>
+      </c>
+      <c r="E97" s="16">
+        <v>322</v>
+      </c>
+      <c r="F97" s="16">
+        <v>357</v>
+      </c>
+      <c r="G97" s="16">
+        <v>393</v>
+      </c>
+      <c r="H97" s="16">
+        <v>438</v>
+      </c>
+      <c r="I97" s="16">
+        <v>483</v>
+      </c>
+      <c r="J97" s="16">
+        <v>512</v>
+      </c>
+      <c r="K97" s="16">
+        <v>541</v>
+      </c>
+      <c r="L97" s="16">
+        <v>589</v>
+      </c>
+      <c r="M97" s="16">
+        <v>638</v>
+      </c>
+      <c r="N97" s="16">
+        <v>644</v>
+      </c>
+      <c r="O97" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="16">
+        <v>117</v>
+      </c>
+      <c r="C98" s="16">
+        <v>122</v>
+      </c>
+      <c r="D98" s="16">
+        <v>138</v>
+      </c>
+      <c r="E98" s="16">
+        <v>149</v>
+      </c>
+      <c r="F98" s="16">
+        <v>161</v>
+      </c>
+      <c r="G98" s="16">
+        <v>172</v>
+      </c>
+      <c r="H98" s="16">
+        <v>195</v>
+      </c>
+      <c r="I98" s="16">
+        <v>198</v>
+      </c>
+      <c r="J98" s="16">
+        <v>209</v>
+      </c>
+      <c r="K98" s="16">
+        <v>220</v>
+      </c>
+      <c r="L98" s="16">
         <v>230</v>
       </c>
-      <c r="E94" s="8">
-        <v>255</v>
-      </c>
-      <c r="F94" s="8">
-        <v>275</v>
-      </c>
-      <c r="G94" s="8">
-        <v>290</v>
-      </c>
-      <c r="H94" s="8">
-        <v>310</v>
-      </c>
-      <c r="I94" s="8">
-        <v>330</v>
-      </c>
-      <c r="J94" s="8">
-        <v>340</v>
-      </c>
-      <c r="K94" s="8">
-        <v>355</v>
-      </c>
-      <c r="L94" s="8">
-        <v>370</v>
-      </c>
-      <c r="M94" s="8">
-        <v>380</v>
-      </c>
-      <c r="N94" s="8">
-        <v>420</v>
-      </c>
-      <c r="O94" s="12">
-        <v>43452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="8">
-        <v>160</v>
-      </c>
-      <c r="C95" s="8">
-        <v>190</v>
-      </c>
-      <c r="D95" s="8">
-        <v>230</v>
-      </c>
-      <c r="E95" s="8">
-        <v>255</v>
-      </c>
-      <c r="F95" s="8">
-        <v>275</v>
-      </c>
-      <c r="G95" s="8">
-        <v>290</v>
-      </c>
-      <c r="H95" s="8">
-        <v>310</v>
-      </c>
-      <c r="I95" s="8">
-        <v>330</v>
-      </c>
-      <c r="J95" s="8">
-        <v>340</v>
-      </c>
-      <c r="K95" s="8">
-        <v>355</v>
-      </c>
-      <c r="L95" s="8">
-        <v>370</v>
-      </c>
-      <c r="M95" s="8">
-        <v>380</v>
-      </c>
-      <c r="N95" s="8">
-        <v>420</v>
-      </c>
-      <c r="O95" s="12">
-        <v>43452</v>
+      <c r="M98" s="16">
+        <v>240</v>
+      </c>
+      <c r="N98" s="16">
+        <v>242</v>
+      </c>
+      <c r="O98" s="12">
+        <v>45695</v>
       </c>
     </row>
   </sheetData>
